--- a/biology/Botanique/Crocus_nudiflorus/Crocus_nudiflorus.xlsx
+++ b/biology/Botanique/Crocus_nudiflorus/Crocus_nudiflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crocus nudiflorus, le Crocus à fleurs nues ou Crocus d'automne, est une plante vivace de la famille des iridacées. Il se caractérise, comme l'indique son nom, par le fait que les fleurs apparaissent en automne et les feuilles seulement au printemps.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante de 10 à 20 cm, glabre, à petit corme globuleux. Elle se multiplie au printemps par de nombreux stolons – ce qui fait qu'elle forme des tapis lâches et pas des touffes comme les autres crocus.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : fleur solitaire terminale, entièrement bleue - violette, grande, sortant d'une spathe univalve
